--- a/製品/２詳細設計/製品画面レイアウト.xlsx
+++ b/製品/２詳細設計/製品画面レイアウト.xlsx
@@ -4,102 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13035" activeTab="3"/>
+    <workbookView windowWidth="16515" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="商品登録" sheetId="3" r:id="rId1"/>
-    <sheet name="商品一覧" sheetId="4" r:id="rId2"/>
-    <sheet name="商品登録_画面レイアウト" sheetId="5" r:id="rId3"/>
-    <sheet name="商品一覧_画面レイアウト" sheetId="6" r:id="rId4"/>
+    <sheet name="商品登録_画面レイアウト" sheetId="5" r:id="rId1"/>
+    <sheet name="商品一覧_画面レイアウト" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
-  <si>
-    <t>項番</t>
-  </si>
-  <si>
-    <t>項目名</t>
-  </si>
-  <si>
-    <t>部品</t>
-  </si>
-  <si>
-    <t>入力チェック</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>：つけ</t>
-  </si>
-  <si>
-    <t>入力欄</t>
-  </si>
-  <si>
-    <t>textbox</t>
-  </si>
-  <si>
-    <t>文字のみ</t>
-  </si>
-  <si>
-    <t>販売値段</t>
-  </si>
-  <si>
-    <t>数字のみかつ&gt;0</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>産地</t>
-  </si>
-  <si>
-    <t>商品クラスID</t>
-  </si>
-  <si>
-    <t>登録</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>ｔｄ</t>
-  </si>
-  <si>
-    <t>生産日時</t>
-  </si>
-  <si>
-    <t>削除</t>
-  </si>
-  <si>
-    <t>データの削除は[a]タグで使います</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,91 +39,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,8 +68,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,16 +152,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,7 +184,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,31 +232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,13 +250,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,13 +292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,43 +316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,13 +334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,47 +352,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,12 +393,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -522,39 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -569,158 +446,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4390,365 +4295,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="27.1333333333333" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.3833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8833333333333" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4766,7 +4312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
